--- a/ope.ed.gov/2011/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2011.xlsx
+++ b/ope.ed.gov/2011/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2011.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_On_campus_Stu" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-on-campus-stu" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - On-campus Student Housing Facilities</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -463,52 +460,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2011.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>901.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -516,19 +555,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231420.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>901.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -537,19 +576,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J3">
         <v>0.0</v>
       </c>
       <c s="1" r="K3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L3">
         <v>0.0</v>
       </c>
       <c s="1" r="M3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N3">
         <v>0.0</v>
@@ -563,19 +602,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B4">
-        <v>366793.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>110.0</v>
+        <v>763.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -590,13 +629,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L4">
         <v>0.0</v>
       </c>
       <c s="1" r="M4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N4">
         <v>0.0</v>
@@ -610,19 +649,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>763.0</v>
+        <v>1648.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -631,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J5">
         <v>0.0</v>
@@ -657,19 +696,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>1648.0</v>
+        <v>4990.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -678,19 +717,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J6">
         <v>0.0</v>
       </c>
       <c s="1" r="K6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L6">
         <v>0.0</v>
       </c>
       <c s="1" r="M6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N6">
         <v>0.0</v>
@@ -704,19 +743,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>4990.0</v>
+        <v>8200.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -725,19 +764,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I7">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="J7">
         <v>0.0</v>
       </c>
       <c s="1" r="K7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L7">
         <v>0.0</v>
       </c>
       <c s="1" r="M7">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="N7">
         <v>0.0</v>
@@ -751,19 +790,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>8200.0</v>
+        <v>1521.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -772,7 +811,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I8">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J8">
         <v>0.0</v>
@@ -784,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M8">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N8">
         <v>0.0</v>
@@ -798,19 +837,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>1521.0</v>
+        <v>1008.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -845,19 +884,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231970.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>1008.0</v>
+        <v>982.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -866,7 +905,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J10">
         <v>0.0</v>
@@ -875,10 +914,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L10">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M10">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N10">
         <v>0.0</v>
@@ -892,19 +931,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>982.0</v>
+        <v>1512.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -922,10 +961,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M11">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N11">
         <v>0.0</v>
@@ -939,19 +978,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>1512.0</v>
+        <v>33320.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -960,7 +999,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I12">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J12">
         <v>0.0</v>
@@ -969,10 +1008,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L12">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M12">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="N12">
         <v>0.0</v>
@@ -986,19 +1025,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>33320.0</v>
+        <v>1057.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -1007,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I13">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J13">
         <v>0.0</v>
@@ -1019,13 +1058,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M13">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N13">
         <v>0.0</v>
       </c>
       <c s="1" r="O13">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1033,19 +1072,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>1057.0</v>
+        <v>5221.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1054,25 +1093,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I14">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J14">
         <v>0.0</v>
       </c>
       <c s="1" r="K14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L14">
         <v>0.0</v>
       </c>
       <c s="1" r="M14">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="N14">
         <v>0.0</v>
       </c>
       <c s="1" r="O14">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,19 +1119,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>5221.0</v>
+        <v>953.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1101,19 +1140,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J15">
         <v>0.0</v>
       </c>
       <c s="1" r="K15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L15">
         <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1127,19 +1166,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>953.0</v>
+        <v>19722.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1148,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I16">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J16">
         <v>0.0</v>
@@ -1160,7 +1199,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="N16">
         <v>0.0</v>
@@ -1177,13 +1216,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>19722.0</v>
@@ -1195,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I17">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J17">
         <v>0.0</v>
@@ -1207,7 +1246,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M17">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N17">
         <v>0.0</v>
@@ -1224,13 +1263,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
         <v>19722.0</v>
@@ -1271,13 +1310,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
         <v>19722.0</v>
@@ -1315,19 +1354,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>19722.0</v>
+        <v>1065.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1362,19 +1401,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B21">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>1065.0</v>
+        <v>64096.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1383,7 +1422,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J21">
         <v>0.0</v>
@@ -1395,7 +1434,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M21">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N21">
         <v>0.0</v>
@@ -1409,19 +1448,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>64096.0</v>
+        <v>4860.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1430,7 +1469,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J22">
         <v>0.0</v>
@@ -1442,7 +1481,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M22">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N22">
         <v>0.0</v>
@@ -1456,19 +1495,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>4860.0</v>
+        <v>2828.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1477,7 +1516,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I23">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J23">
         <v>0.0</v>
@@ -1486,10 +1525,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M23">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N23">
         <v>0.0</v>
@@ -1503,19 +1542,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232609.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>2828.0</v>
+        <v>1783.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1524,7 +1563,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I24">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J24">
         <v>0.0</v>
@@ -1533,10 +1572,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L24">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M24">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N24">
         <v>0.0</v>
@@ -1550,19 +1589,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>1783.0</v>
+        <v>3633.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1571,7 +1610,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J25">
         <v>0.0</v>
@@ -1583,7 +1622,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M25">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N25">
         <v>0.0</v>
@@ -1597,19 +1636,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232706.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>3633.0</v>
+        <v>7091.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1624,19 +1663,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M26">
+        <v>23.0</v>
+      </c>
+      <c s="1" r="N26">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O26">
         <v>2.0</v>
-      </c>
-      <c s="1" r="N26">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O26">
-        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1644,19 +1683,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232937.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>7091.0</v>
+        <v>24753.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1665,25 +1704,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J27">
         <v>0.0</v>
       </c>
       <c s="1" r="K27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L27">
         <v>1.0</v>
       </c>
       <c s="1" r="M27">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="N27">
         <v>0.0</v>
       </c>
       <c s="1" r="O27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1691,19 +1730,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232982.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>24753.0</v>
+        <v>9370.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1712,7 +1751,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
@@ -1724,7 +1763,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="M28">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N28">
         <v>0.0</v>
@@ -1738,19 +1777,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>9370.0</v>
+        <v>576.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1759,7 +1798,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J29">
         <v>0.0</v>
@@ -1768,10 +1807,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M29">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N29">
         <v>0.0</v>
@@ -1785,19 +1824,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>576.0</v>
+        <v>1257.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1806,7 +1845,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I30">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J30">
         <v>0.0</v>
@@ -1815,10 +1854,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L30">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M30">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
@@ -1832,19 +1871,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B31">
-        <v>233295.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>1257.0</v>
+        <v>5568.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1853,7 +1892,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I31">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J31">
         <v>0.0</v>
@@ -1862,10 +1901,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L31">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -1879,19 +1918,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>5568.0</v>
+        <v>1629.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1909,16 +1948,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L32">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M32">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N32">
         <v>0.0</v>
       </c>
       <c s="1" r="O32">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -1926,19 +1965,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233338.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>1629.0</v>
+        <v>2057.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1947,7 +1986,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I33">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J33">
         <v>0.0</v>
@@ -1956,16 +1995,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L33">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M33">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N33">
         <v>0.0</v>
       </c>
       <c s="1" r="O33">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1973,19 +2012,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233426.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>2057.0</v>
+        <v>410.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1994,19 +2033,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I34">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J34">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K34">
         <v>0.0</v>
       </c>
       <c s="1" r="L34">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M34">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N34">
         <v>0.0</v>
@@ -2020,19 +2059,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>410.0</v>
+        <v>4052.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2041,19 +2080,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I35">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J35">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K35">
         <v>0.0</v>
       </c>
       <c s="1" r="L35">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M35">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N35">
         <v>0.0</v>
@@ -2067,19 +2106,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233541.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>4052.0</v>
+        <v>71.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2088,7 +2127,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I36">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J36">
         <v>0.0</v>
@@ -2097,10 +2136,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L36">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M36">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N36">
         <v>0.0</v>
@@ -2114,19 +2153,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B37">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>71.0</v>
+        <v>803.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2147,7 +2186,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M37">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="N37">
         <v>0.0</v>
@@ -2161,19 +2200,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233611.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>803.0</v>
+        <v>760.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2194,7 +2233,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M38">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N38">
         <v>0.0</v>
@@ -2208,19 +2247,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233718.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>760.0</v>
+        <v>2067.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2255,19 +2294,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B40">
-        <v>233897.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>2067.0</v>
+        <v>221.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2288,7 +2327,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N40">
         <v>0.0</v>
@@ -2302,19 +2341,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>221.0</v>
+        <v>5170.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2323,7 +2362,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I41">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J41">
         <v>0.0</v>
@@ -2335,13 +2374,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N41">
         <v>0.0</v>
       </c>
       <c s="1" r="O41">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -2349,19 +2388,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B42">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>5170.0</v>
+        <v>4348.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2370,7 +2409,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J42">
         <v>0.0</v>
@@ -2382,13 +2421,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M42">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="N42">
         <v>0.0</v>
       </c>
       <c s="1" r="O42">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -2396,19 +2435,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B43">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>4348.0</v>
+        <v>24297.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2429,7 +2468,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M43">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N43">
         <v>0.0</v>
@@ -2443,19 +2482,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B44">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>24297.0</v>
+        <v>31627.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2464,7 +2503,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I44">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J44">
         <v>0.0</v>
@@ -2476,7 +2515,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M44">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N44">
         <v>0.0</v>
@@ -2493,13 +2532,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
         <v>31627.0</v>
@@ -2511,7 +2550,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J45">
         <v>0.0</v>
@@ -2523,7 +2562,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M45">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N45">
         <v>0.0</v>
@@ -2537,19 +2576,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B46">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>31627.0</v>
+        <v>558.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2570,7 +2609,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N46">
         <v>0.0</v>
@@ -2584,19 +2623,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B47">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>558.0</v>
+        <v>1605.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2617,13 +2656,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M47">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="N47">
         <v>0.0</v>
       </c>
       <c s="1" r="O47">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -2631,19 +2670,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B48">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>1605.0</v>
+        <v>30936.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2652,7 +2691,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I48">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="J48">
         <v>0.0</v>
@@ -2661,16 +2700,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L48">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M48">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="N48">
         <v>0.0</v>
       </c>
       <c s="1" r="O48">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -2681,13 +2720,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
         <v>30936.0</v>
@@ -2699,7 +2738,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I49">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J49">
         <v>0.0</v>
@@ -2708,10 +2747,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M49">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N49">
         <v>0.0</v>
@@ -2728,13 +2767,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
         <v>30936.0</v>
@@ -2775,13 +2814,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
         <v>30936.0</v>
@@ -2819,19 +2858,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B52">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>30936.0</v>
+        <v>5890.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2840,19 +2879,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J52">
         <v>0.0</v>
       </c>
       <c s="1" r="K52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L52">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M52">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
@@ -2866,19 +2905,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>5890.0</v>
+        <v>1678.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2887,19 +2926,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I53">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J53">
         <v>0.0</v>
       </c>
       <c s="1" r="K53">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L53">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N53">
         <v>0.0</v>
@@ -2913,19 +2952,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>1678.0</v>
+        <v>597.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2946,7 +2985,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M54">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N54">
         <v>0.0</v>
@@ -2960,19 +2999,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B55">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>597.0</v>
+        <v>1404.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2993,7 +3032,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M55">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N55">
         <v>0.0</v>
@@ -3007,19 +3046,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B56">
-        <v>234173.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
-        <v>1404.0</v>
+        <v>2193.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3028,7 +3067,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I56">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J56">
         <v>0.0</v>
@@ -3040,7 +3079,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M56">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N56">
         <v>0.0</v>
@@ -3054,19 +3093,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B57">
-        <v>234207.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
-        <v>2193.0</v>
+        <v>128.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -3075,7 +3114,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I57">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J57">
         <v>0.0</v>
@@ -3087,59 +3126,12 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M57">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="N57">
         <v>0.0</v>
       </c>
       <c s="1" r="O57">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c s="1" r="A58">
-        <v>2011.0</v>
-      </c>
-      <c s="1" r="B58">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C58">
-        <v>126</v>
-      </c>
-      <c s="1" r="D58">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E58">
-        <v>127</v>
-      </c>
-      <c s="1" r="F58">
-        <v>128.0</v>
-      </c>
-      <c s="1" r="G58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I58">
-        <v>5.0</v>
-      </c>
-      <c s="1" r="J58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M58">
-        <v>24.0</v>
-      </c>
-      <c s="1" r="N58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O58">
         <v>0.0</v>
       </c>
     </row>
